--- a/数据整理/stocks/A股/上证主板/601988-中国银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601988-中国银行.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,496 +512,676 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.61</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.63</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>510210</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>富国上证综指ETF</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>95.40</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.85</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519162</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华增怡债券A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009493</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>320016</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>诺安多策略混合</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>76.15</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2.63</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519162</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>新华增怡债券A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>168106</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰盈华量化灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519163</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华增怡债券C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>20.11</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>4.80</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519163</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>新华增怡债券C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168107</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰盈华量化灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008114</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008115</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004952</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>兴全恒益债券A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009494</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512270</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安沪深300行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004953</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>兴全恒益债券C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>512270</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华安沪深300行业中性低波动ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>95.26</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>515100</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>景顺长城中证红利低波动100ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>97.86</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>98.29</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009493</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成尊享18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>28.01</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009494</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成尊享18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>28.01</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>168106</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>九泰盈华量化灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>168107</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>九泰盈华量化灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>000646</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华润元大量化优选混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007827</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华润元大量化优选混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1001,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,15 +1212,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000646</t>
+          <t>009601</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华润元大量化优选混合A</t>
+          <t>招商科技动力3个月滚动持有股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>14.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4012</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007827</t>
+          <t>008261</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华润元大量化优选混合C</t>
+          <t>招商研究优选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5376</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>165531</t>
+          <t>470007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信诚多策略灵活配置混合（LOF）</t>
+          <t>汇添富上证综合指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.36</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009918</t>
+          <t>003416</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上银核心成长混合A</t>
+          <t>招商财经大数据策略股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.74</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009919</t>
+          <t>000646</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上银核心成长混合C</t>
+          <t>华润元大量化优选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.74</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>320016</t>
+          <t>009602</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺安多策略混合</t>
+          <t>招商科技动力3个月滚动持有股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>77.86</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>350001</t>
+          <t>002728</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天治财富增长混合</t>
+          <t>华富益鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>39.34</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010268</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太平睿安混合A</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010269</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太平睿安混合C</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>470007</t>
+          <t>008262</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富上证综合指数</t>
+          <t>招商研究优选股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>510060</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>工银上证央企50ETF</t>
+          <t>富国上证综指ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>98.82</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>010268</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国上证综指ETF</t>
+          <t>太平睿安混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>98.82</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>512270</t>
+          <t>002729</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华安沪深300行业中性低波动ETF</t>
+          <t>华富益鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>003147</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>大成动态量化配置策略混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>97.42</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>515300</t>
+          <t>003182</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF</t>
+          <t>华富弘鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002728</t>
+          <t>350001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华富益鑫灵活配置混合A</t>
+          <t>天治财富增长混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>22.14</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
+          <t>39.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002729</t>
+          <t>510060</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华富益鑫灵活配置混合C</t>
+          <t>工银上证央企50ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>22.14</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>003147</t>
+          <t>320016</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大成动态量化配置策略混合</t>
+          <t>诺安多策略混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>29.73</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>003182</t>
+          <t>515300</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华富弘鑫灵活配置混合A</t>
+          <t>嘉实沪深300红利低波动ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21.86</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>003183</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华富弘鑫灵活配置混合C</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21.86</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>003416</t>
+          <t>165531</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>招商财经大数据策略股票A</t>
+          <t>信诚多策略灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>81.93</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
+          <t>24.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>007952</t>
+          <t>003183</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>招商财经大数据策略股票C</t>
+          <t>华富弘鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>81.93</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>009918</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>上银核心成长混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>007827</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>华润元大量化优选混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008261</t>
+          <t>009919</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>招商研究优选股票A</t>
+          <t>上银核心成长混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>82.39</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>008262</t>
+          <t>010269</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>招商研究优选股票C</t>
+          <t>太平睿安混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>82.39</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>009601</t>
+          <t>512270</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>招商科技动力3个月滚动持有股票A</t>
+          <t>华安沪深300行业中性低波动ETF</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>82.97</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>9.84</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1798,26 +2268,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>009602</t>
+          <t>007952</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>招商科技动力3个月滚动持有股票C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>82.97</t>
-        </is>
-      </c>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>9.84</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2</v>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601988-中国银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601988-中国银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2276,7 +2277,6 @@
           <t>招商财经大数据策略股票C</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>81.93</t>
@@ -2292,6 +2292,1050 @@
       </c>
       <c r="H29" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2642</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002813</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时颐泰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001172</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2160</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001381</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002814</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时颐泰混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512270</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安沪深300行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005179</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601988-中国银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601988-中国银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3341,4 +3342,1198 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4593</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>50.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2613</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001172</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002813</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时颐泰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2251</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>32.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010373</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得聚兴一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010374</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得聚兴一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001381</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002814</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时颐泰混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601988-中国银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601988-中国银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4536,4 +4537,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601988-中国银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601988-中国银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4545,7 +4546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4556,17 +4557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4576,14 +4597,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.28</v>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4592,14 +4635,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.59</v>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4608,14 +4673,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.75</v>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4624,13 +4711,947 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010373</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得聚兴一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010547</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时恒进6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002018</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010374</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得聚兴一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010548</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时恒进6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002019</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601988-中国银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601988-中国银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5550,7 +5551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5561,17 +5562,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5581,14 +5602,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.07</v>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5774</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5597,14 +5640,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.28</v>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3488</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5613,14 +5678,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.59</v>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9760</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5629,14 +5716,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.75</v>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7367</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5645,13 +5754,1875 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4152</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2933</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2427</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2206</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>51.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001196</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方鼎新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002192</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方鼎新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601988-中国银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601988-中国银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7505,7 +7506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7516,17 +7517,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7536,14 +7557,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.08</v>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7344</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -7552,14 +7595,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.07</v>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2249</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7568,14 +7633,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.28</v>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7584,14 +7671,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.59</v>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -7600,14 +7709,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>28</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.75</v>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -7616,13 +7747,1245 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002018</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002728</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>42.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002729</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002019</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>53.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>53.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601988-中国银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601988-中国银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>2.18</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>8.08</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>2.07</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>2.28</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>1.59</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>3.75</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>18</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.07</v>
       </c>
     </row>
@@ -600,6 +617,1656 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华长荣混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6952</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4199</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>32.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012877</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富荣福耀混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河定投宝腾讯济安指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011376</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝安享混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003154</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>660006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003144</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝新机遇灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002111</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝新起点灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011224</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰盈泰量化股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011225</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰盈泰量化股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛沪港深基本面（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>63.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>63.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>162414</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝新机遇灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012876</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富荣福耀混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>61.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1945,7 +3612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3899,7 +5566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4903,7 +6570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6097,7 +7764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7141,7 +8808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8254,7 +9921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601988-中国银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601988-中国银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>2.58</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>2.18</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>8.08</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>2.07</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>2.28</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>1.59</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>3.75</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,770 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>18</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519162</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华增怡债券A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009493</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>168106</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰盈华量化灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519163</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华增怡债券C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168107</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰盈华量化灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009494</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512270</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安沪深300行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1374,1392 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华长荣混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成产业升级股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>970007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>970008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011376</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝安享混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007044</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009747</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003144</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝新机遇灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>32.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004335</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝新飞跃灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>50.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>660006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>农银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003154</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011224</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰盈泰量化股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007045</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011225</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰盈泰量化股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>162414</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝新机遇灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>32.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003125</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>970006</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2266,7 +4409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3612,7 +5755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5566,7 +7709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6570,7 +8713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7764,7 +9907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8808,7 +10951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9919,744 +12062,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>470007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富上证综合指数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.91</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2606</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004952</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴全恒益债券A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>38.29</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2144</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000646</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华润元大量化优选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2088</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008115</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1122</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>510210</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国上证综指ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.40</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0871</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519162</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>新华增怡债券A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0336</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009493</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成尊享18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>28.01</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0318</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>320016</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>诺安多策略混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>76.15</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0239</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>98.29</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>515100</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景顺长城中证红利低波动100ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>97.86</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008114</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007827</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华润元大量化优选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004953</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>兴全恒益债券C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>168106</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>九泰盈华量化灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519163</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>新华增怡债券C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>20.11</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>168107</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>九泰盈华量化灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009494</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>大成尊享18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>28.01</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>512270</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华安沪深300行业中性低波动ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>95.26</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>